--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฤ(39).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฤ(39).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A09410-E3BF-9E40-A6F1-E8CC8EAD0A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{81A09410-E3BF-9E40-A6F1-E8CC8EAD0A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8443BA6E-6190-4560-B097-830C5EBF8AC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="2505" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>headword</t>
   </si>
@@ -64,9 +64,6 @@
     <t>ฤดี</t>
   </si>
   <si>
-    <t>ฤดียา, ฤติยา</t>
-  </si>
-  <si>
     <t>ฤดู</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>ฤๅษีเลี้ยงลิง</t>
   </si>
   <si>
-    <t>เป็นรูปสระในภาษาสันสกฤต เมื่อไทยนำมาใช้ออกเสียงเป็น ริ รึ หรือ เรอ เช่น ฤทธิ์ [ริด]  ฤดู [รึดู]  ฤกษ์ [เริก].</t>
-  </si>
-  <si>
     <t>ว. หรือ, ไม่, เช่น จะมีฤ ว่า จะมีหรือ, ฤบังควร ว่า ไม่บังควร.</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>น. รติ, ความยินดี, ใจ.</t>
   </si>
   <si>
-    <t>ก. เกลียด, รังเกียจ, ดูถูก.; ก. เกลียด, รังเกียจ, ดูถูก.</t>
-  </si>
-  <si>
     <t>น. ส่วนของปีซึ่งแบ่งโดยถือเอาภูมิอากาศเป็นหลัก มักแบ่งออกเป็น ๓ ช่วง คือ ฤดูฝน ฤดูหนาว และฤดูร้อน หรือเป็น ๔ ช่วง คือ ฤดูใบไม้ผลิ ฤดูร้อน ฤดูใบไม้ร่วง และฤดูหนาว ที่แบ่งเป็น ๒ ช่วง คือ ฤดูแล้งกับฤดูฝน ก็มี, เวลาที่กำหนดสำหรับงานต่าง ๆ เช่น ฤดูเก็บเกี่ยว ฤดูทอดกฐิน ฤดูถือบวช, เวลาที่เหมาะ เช่น ฤดูสัตว์ผสมพันธุ์; คราว, สมัย, เช่น ฤดูนํ้าหลาก.</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>น. ฤๅษี, นักบวชพวกหนึ่ง มีมาก่อนพุทธกาล สละบ้านเรือนออกไปบำเพ็ญพรตแสวงหาความสงบ.</t>
   </si>
   <si>
-    <t>เป็นรูปสระในภาษาสันสกฤต ซึ่งเป็นเสียงยาวของ ฤ เมื่อไทยนำมาใช้ออกเสียงเป็น รือ รี เช่น ฤๅษี [รือสี] ตฤๅ [ตฺรี].</t>
-  </si>
-  <si>
     <t>ว. หรือ, อะไร, ไม่ใช่; โดยมากใช้ในบทร้อยกรอง เช่น กวีฤๅแล้งแหล่งสยาม.</t>
   </si>
   <si>
@@ -308,13 +296,28 @@
   </si>
   <si>
     <t>น. ชื่อไม้ล้มลุกชนิด Plectranthus scutellarioides (L.) R. Br. ในวงศ์ Labiatae ใบมีสีต่าง ๆ ขอบใบจักเป็นรูปฟันปลา, ฤๅษีผสมแล้ว หรือ ฤๅษีผสมเสร็จ ก็เรียก.</t>
+  </si>
+  <si>
+    <t>? เป็นรูปสระในภาษาสันสกฤต เมื่อไทยนำมาใช้ออกเสียงเป็น ริ รึ หรือ เรอ เช่น ฤทธิ์ [ริด]  ฤดู [รึดู]  ฤกษ์ [เริก].</t>
+  </si>
+  <si>
+    <t>ฤติยา</t>
+  </si>
+  <si>
+    <t>ฤดียา</t>
+  </si>
+  <si>
+    <t>ก. เกลียด, รังเกียจ, ดูถูก.</t>
+  </si>
+  <si>
+    <t>? เป็นรูปสระในภาษาสันสกฤต ซึ่งเป็นเสียงยาวของ ฤ เมื่อไทยนำมาใช้ออกเสียงเป็น รือ รี เช่น ฤๅษี [รือสี] ตฤๅ [ตฺรี].</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,11 +327,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,12 +378,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,390 +693,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="162" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
+    <row r="38" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="39" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="40" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
